--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H2">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I2">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J2">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>9.88074748858903</v>
+        <v>0.1921113333333333</v>
       </c>
       <c r="N2">
-        <v>9.88074748858903</v>
+        <v>0.576334</v>
       </c>
       <c r="O2">
-        <v>0.4733447363181913</v>
+        <v>0.00871996116177164</v>
       </c>
       <c r="P2">
-        <v>0.4733447363181913</v>
+        <v>0.008735527624601397</v>
       </c>
       <c r="Q2">
-        <v>30.24840972875947</v>
+        <v>0.1415242568544444</v>
       </c>
       <c r="R2">
-        <v>30.24840972875947</v>
+        <v>1.27371831169</v>
       </c>
       <c r="S2">
-        <v>0.2140172540256846</v>
+        <v>0.000791275886274314</v>
       </c>
       <c r="T2">
-        <v>0.2140172540256846</v>
+        <v>0.0008268807950702248</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,196 +587,196 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H3">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I3">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J3">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.993568270036</v>
+        <v>10.45734966666667</v>
       </c>
       <c r="N3">
-        <v>10.993568270036</v>
+        <v>31.372049</v>
       </c>
       <c r="O3">
-        <v>0.5266552636818087</v>
+        <v>0.4746606114600159</v>
       </c>
       <c r="P3">
-        <v>0.5266552636818087</v>
+        <v>0.4755079531657834</v>
       </c>
       <c r="Q3">
-        <v>33.65514175897889</v>
+        <v>7.703702923523889</v>
       </c>
       <c r="R3">
-        <v>33.65514175897889</v>
+        <v>69.333326311715</v>
       </c>
       <c r="S3">
-        <v>0.2381209818198665</v>
+        <v>0.04307215239204386</v>
       </c>
       <c r="T3">
-        <v>0.2381209818198665</v>
+        <v>0.04501026283388114</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.98764177681977</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H4">
-        <v>2.98764177681977</v>
+        <v>2.210035</v>
       </c>
       <c r="I4">
-        <v>0.4412523309732878</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J4">
-        <v>0.4412523309732878</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.88074748858903</v>
+        <v>11.26397633333333</v>
       </c>
       <c r="N4">
-        <v>9.88074748858903</v>
+        <v>33.791929</v>
       </c>
       <c r="O4">
-        <v>0.4733447363181913</v>
+        <v>0.5112735123406649</v>
       </c>
       <c r="P4">
-        <v>0.4733447363181913</v>
+        <v>0.5121862136678889</v>
       </c>
       <c r="Q4">
-        <v>29.52013398311561</v>
+        <v>8.297927311946111</v>
       </c>
       <c r="R4">
-        <v>29.52013398311561</v>
+        <v>74.681345807515</v>
       </c>
       <c r="S4">
-        <v>0.2088644682543382</v>
+        <v>0.04639451874849253</v>
       </c>
       <c r="T4">
-        <v>0.2088644682543382</v>
+        <v>0.04848212515394994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.98764177681977</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H5">
-        <v>2.98764177681977</v>
+        <v>2.210035</v>
       </c>
       <c r="I5">
-        <v>0.4412523309732878</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J5">
-        <v>0.4412523309732878</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>10.993568270036</v>
+        <v>0.117777</v>
       </c>
       <c r="N5">
-        <v>10.993568270036</v>
+        <v>0.235554</v>
       </c>
       <c r="O5">
-        <v>0.5266552636818087</v>
+        <v>0.005345915037547559</v>
       </c>
       <c r="P5">
-        <v>0.5266552636818087</v>
+        <v>0.003570305541726425</v>
       </c>
       <c r="Q5">
-        <v>32.8448438398798</v>
+        <v>0.086763764065</v>
       </c>
       <c r="R5">
-        <v>32.8448438398798</v>
+        <v>0.52058258439</v>
       </c>
       <c r="S5">
-        <v>0.2323878627189496</v>
+        <v>0.0004851046444825216</v>
       </c>
       <c r="T5">
-        <v>0.2323878627189496</v>
+        <v>0.0003379552113912623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -779,111 +785,979 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.721833685665888</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H6">
-        <v>0.721833685665888</v>
+        <v>0.45002</v>
       </c>
       <c r="I6">
-        <v>0.1066094331811611</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J6">
-        <v>0.1066094331811611</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>9.88074748858903</v>
+        <v>0.1921113333333333</v>
       </c>
       <c r="N6">
-        <v>9.88074748858903</v>
+        <v>0.576334</v>
       </c>
       <c r="O6">
-        <v>0.4733447363181913</v>
+        <v>0.00871996116177164</v>
       </c>
       <c r="P6">
-        <v>0.4733447363181913</v>
+        <v>0.008735527624601397</v>
       </c>
       <c r="Q6">
-        <v>7.132256376822187</v>
+        <v>0.02881798074222222</v>
       </c>
       <c r="R6">
-        <v>7.132256376822187</v>
+        <v>0.25936182668</v>
       </c>
       <c r="S6">
-        <v>0.05046301403816852</v>
+        <v>0.0001611241334825768</v>
       </c>
       <c r="T6">
-        <v>0.05046301403816852</v>
+        <v>0.0001683742091856023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1500066666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.45002</v>
+      </c>
+      <c r="I7">
+        <v>0.01847762054135585</v>
+      </c>
+      <c r="J7">
+        <v>0.0192746467553281</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.45734966666667</v>
+      </c>
+      <c r="N7">
+        <v>31.372049</v>
+      </c>
+      <c r="O7">
+        <v>0.4746606114600159</v>
+      </c>
+      <c r="P7">
+        <v>0.4755079531657834</v>
+      </c>
+      <c r="Q7">
+        <v>1.568672165664444</v>
+      </c>
+      <c r="R7">
+        <v>14.11804949098</v>
+      </c>
+      <c r="S7">
+        <v>0.008770598664486116</v>
+      </c>
+      <c r="T7">
+        <v>0.009165247826619573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1500066666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.45002</v>
+      </c>
+      <c r="I8">
+        <v>0.01847762054135585</v>
+      </c>
+      <c r="J8">
+        <v>0.0192746467553281</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>11.26397633333333</v>
+      </c>
+      <c r="N8">
+        <v>33.791929</v>
+      </c>
+      <c r="O8">
+        <v>0.5112735123406649</v>
+      </c>
+      <c r="P8">
+        <v>0.5121862136678889</v>
+      </c>
+      <c r="Q8">
+        <v>1.689671543175555</v>
+      </c>
+      <c r="R8">
+        <v>15.20704388858</v>
+      </c>
+      <c r="S8">
+        <v>0.00944711795387702</v>
+      </c>
+      <c r="T8">
+        <v>0.009872208341397558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.721833685665888</v>
-      </c>
-      <c r="H7">
-        <v>0.721833685665888</v>
-      </c>
-      <c r="I7">
-        <v>0.1066094331811611</v>
-      </c>
-      <c r="J7">
-        <v>0.1066094331811611</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>10.993568270036</v>
-      </c>
-      <c r="N7">
-        <v>10.993568270036</v>
-      </c>
-      <c r="O7">
-        <v>0.5266552636818087</v>
-      </c>
-      <c r="P7">
-        <v>0.5266552636818087</v>
-      </c>
-      <c r="Q7">
-        <v>7.935527902979647</v>
-      </c>
-      <c r="R7">
-        <v>7.935527902979647</v>
-      </c>
-      <c r="S7">
-        <v>0.05614641914299255</v>
-      </c>
-      <c r="T7">
-        <v>0.05614641914299255</v>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1500066666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.45002</v>
+      </c>
+      <c r="I9">
+        <v>0.01847762054135585</v>
+      </c>
+      <c r="J9">
+        <v>0.0192746467553281</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.117777</v>
+      </c>
+      <c r="N9">
+        <v>0.235554</v>
+      </c>
+      <c r="O9">
+        <v>0.005345915037547559</v>
+      </c>
+      <c r="P9">
+        <v>0.003570305541726425</v>
+      </c>
+      <c r="Q9">
+        <v>0.01766733518</v>
+      </c>
+      <c r="R9">
+        <v>0.10600401108</v>
+      </c>
+      <c r="S9">
+        <v>9.87797895101319E-05</v>
+      </c>
+      <c r="T9">
+        <v>6.881637812536717E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.208284</v>
+      </c>
+      <c r="H10">
+        <v>9.624852000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.3951921315112883</v>
+      </c>
+      <c r="J10">
+        <v>0.4122386168888342</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1921113333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.576334</v>
+      </c>
+      <c r="O10">
+        <v>0.00871996116177164</v>
+      </c>
+      <c r="P10">
+        <v>0.008735527624601397</v>
+      </c>
+      <c r="Q10">
+        <v>0.6163477169520001</v>
+      </c>
+      <c r="R10">
+        <v>5.547129452568001</v>
+      </c>
+      <c r="S10">
+        <v>0.003446060038216184</v>
+      </c>
+      <c r="T10">
+        <v>0.003601121825759883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.208284</v>
+      </c>
+      <c r="H11">
+        <v>9.624852000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.3951921315112883</v>
+      </c>
+      <c r="J11">
+        <v>0.4122386168888342</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.45734966666667</v>
+      </c>
+      <c r="N11">
+        <v>31.372049</v>
+      </c>
+      <c r="O11">
+        <v>0.4746606114600159</v>
+      </c>
+      <c r="P11">
+        <v>0.4755079531657834</v>
+      </c>
+      <c r="Q11">
+        <v>33.55014761797201</v>
+      </c>
+      <c r="R11">
+        <v>301.951328561748</v>
+      </c>
+      <c r="S11">
+        <v>0.1875821387873351</v>
+      </c>
+      <c r="T11">
+        <v>0.1960227409327031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.208284</v>
+      </c>
+      <c r="H12">
+        <v>9.624852000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.3951921315112883</v>
+      </c>
+      <c r="J12">
+        <v>0.4122386168888342</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>11.26397633333333</v>
+      </c>
+      <c r="N12">
+        <v>33.791929</v>
+      </c>
+      <c r="O12">
+        <v>0.5112735123406649</v>
+      </c>
+      <c r="P12">
+        <v>0.5121862136678889</v>
+      </c>
+      <c r="Q12">
+        <v>36.138035046612</v>
+      </c>
+      <c r="R12">
+        <v>325.242315419508</v>
+      </c>
+      <c r="S12">
+        <v>0.2020512691271703</v>
+      </c>
+      <c r="T12">
+        <v>0.2111429363119794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.208284</v>
+      </c>
+      <c r="H13">
+        <v>9.624852000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.3951921315112883</v>
+      </c>
+      <c r="J13">
+        <v>0.4122386168888342</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.117777</v>
+      </c>
+      <c r="N13">
+        <v>0.235554</v>
+      </c>
+      <c r="O13">
+        <v>0.005345915037547559</v>
+      </c>
+      <c r="P13">
+        <v>0.003570305541726425</v>
+      </c>
+      <c r="Q13">
+        <v>0.377862064668</v>
+      </c>
+      <c r="R13">
+        <v>2.267172388008</v>
+      </c>
+      <c r="S13">
+        <v>0.002112663558566669</v>
+      </c>
+      <c r="T13">
+        <v>0.001471817818391842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H14">
+        <v>9.048665</v>
+      </c>
+      <c r="I14">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J14">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1921113333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.576334</v>
+      </c>
+      <c r="O14">
+        <v>0.00871996116177164</v>
+      </c>
+      <c r="P14">
+        <v>0.008735527624601397</v>
+      </c>
+      <c r="Q14">
+        <v>0.5794503660122222</v>
+      </c>
+      <c r="R14">
+        <v>5.21505329411</v>
+      </c>
+      <c r="S14">
+        <v>0.003239763360070933</v>
+      </c>
+      <c r="T14">
+        <v>0.003385542450469841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H15">
+        <v>9.048665</v>
+      </c>
+      <c r="I15">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J15">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.45734966666667</v>
+      </c>
+      <c r="N15">
+        <v>31.372049</v>
+      </c>
+      <c r="O15">
+        <v>0.4746606114600159</v>
+      </c>
+      <c r="P15">
+        <v>0.4755079531657834</v>
+      </c>
+      <c r="Q15">
+        <v>31.54168464050944</v>
+      </c>
+      <c r="R15">
+        <v>283.875161764585</v>
+      </c>
+      <c r="S15">
+        <v>0.1763526269152088</v>
+      </c>
+      <c r="T15">
+        <v>0.1842879365918373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H16">
+        <v>9.048665</v>
+      </c>
+      <c r="I16">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J16">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>11.26397633333333</v>
+      </c>
+      <c r="N16">
+        <v>33.791929</v>
+      </c>
+      <c r="O16">
+        <v>0.5112735123406649</v>
+      </c>
+      <c r="P16">
+        <v>0.5121862136678889</v>
+      </c>
+      <c r="Q16">
+        <v>33.97464946942056</v>
+      </c>
+      <c r="R16">
+        <v>305.771845224785</v>
+      </c>
+      <c r="S16">
+        <v>0.1899555699304889</v>
+      </c>
+      <c r="T16">
+        <v>0.1985029689602954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H17">
+        <v>9.048665</v>
+      </c>
+      <c r="I17">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J17">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.117777</v>
+      </c>
+      <c r="N17">
+        <v>0.235554</v>
+      </c>
+      <c r="O17">
+        <v>0.005345915037547559</v>
+      </c>
+      <c r="P17">
+        <v>0.003570305541726425</v>
+      </c>
+      <c r="Q17">
+        <v>0.355241539235</v>
+      </c>
+      <c r="R17">
+        <v>2.13144923541</v>
+      </c>
+      <c r="S17">
+        <v>0.001986190000550415</v>
+      </c>
+      <c r="T17">
+        <v>0.001383708173347352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.0070985</v>
+      </c>
+      <c r="H18">
+        <v>2.014197</v>
+      </c>
+      <c r="I18">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J18">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1921113333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.576334</v>
+      </c>
+      <c r="O18">
+        <v>0.00871996116177164</v>
+      </c>
+      <c r="P18">
+        <v>0.008735527624601397</v>
+      </c>
+      <c r="Q18">
+        <v>0.193475035633</v>
+      </c>
+      <c r="R18">
+        <v>1.160850213798</v>
+      </c>
+      <c r="S18">
+        <v>0.001081737743727632</v>
+      </c>
+      <c r="T18">
+        <v>0.0007536083441158452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.0070985</v>
+      </c>
+      <c r="H19">
+        <v>2.014197</v>
+      </c>
+      <c r="I19">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J19">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10.45734966666667</v>
+      </c>
+      <c r="N19">
+        <v>31.372049</v>
+      </c>
+      <c r="O19">
+        <v>0.4746606114600159</v>
+      </c>
+      <c r="P19">
+        <v>0.4755079531657834</v>
+      </c>
+      <c r="Q19">
+        <v>10.5315811632755</v>
+      </c>
+      <c r="R19">
+        <v>63.18948697965301</v>
+      </c>
+      <c r="S19">
+        <v>0.058883094700942</v>
+      </c>
+      <c r="T19">
+        <v>0.04102176498074234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.0070985</v>
+      </c>
+      <c r="H20">
+        <v>2.014197</v>
+      </c>
+      <c r="I20">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J20">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>11.26397633333333</v>
+      </c>
+      <c r="N20">
+        <v>33.791929</v>
+      </c>
+      <c r="O20">
+        <v>0.5112735123406649</v>
+      </c>
+      <c r="P20">
+        <v>0.5121862136678889</v>
+      </c>
+      <c r="Q20">
+        <v>11.3439336693355</v>
+      </c>
+      <c r="R20">
+        <v>68.06360201601302</v>
+      </c>
+      <c r="S20">
+        <v>0.0634250365806361</v>
+      </c>
+      <c r="T20">
+        <v>0.04418597490026653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.0070985</v>
+      </c>
+      <c r="H21">
+        <v>2.014197</v>
+      </c>
+      <c r="I21">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J21">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.117777</v>
+      </c>
+      <c r="N21">
+        <v>0.235554</v>
+      </c>
+      <c r="O21">
+        <v>0.005345915037547559</v>
+      </c>
+      <c r="P21">
+        <v>0.003570305541726425</v>
+      </c>
+      <c r="Q21">
+        <v>0.1186130400345</v>
+      </c>
+      <c r="R21">
+        <v>0.4744521601380001</v>
+      </c>
+      <c r="S21">
+        <v>0.0006631770444378223</v>
+      </c>
+      <c r="T21">
+        <v>0.0003080079604706018</v>
       </c>
     </row>
   </sheetData>
